--- a/Experiments/Measurements/Two Banners Side by Side/S path/Antenna_1/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/S path/Antenna_1/Transformed_Coordinates.xlsx
@@ -1342,7 +1342,7 @@
         <v>140.2166781942924</v>
       </c>
       <c r="H30" t="n">
-        <v>69.91146614998873</v>
+        <v>69.91146614998875</v>
       </c>
     </row>
     <row r="31">
@@ -1522,7 +1522,7 @@
         <v>154.3657038408193</v>
       </c>
       <c r="H36" t="n">
-        <v>72.91230146785668</v>
+        <v>72.91230146785669</v>
       </c>
     </row>
     <row r="37">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>110.9125448571862</v>
+        <v>110.9125448571859</v>
       </c>
       <c r="H53" t="n">
-        <v>49.84591603923803</v>
+        <v>49.84591603923796</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>192.7628761537609</v>
+        <v>192.7628761537613</v>
       </c>
       <c r="H54" t="n">
-        <v>47.75894452783917</v>
+        <v>47.75894452783933</v>
       </c>
     </row>
     <row r="55">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>203.5529686815123</v>
+        <v>203.5529686815125</v>
       </c>
       <c r="H55" t="n">
-        <v>46.11676301365798</v>
+        <v>46.11676301365807</v>
       </c>
     </row>
     <row r="56">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>234.8494452198128</v>
+        <v>234.8494452198126</v>
       </c>
       <c r="H59" t="n">
-        <v>34.2828525680123</v>
+        <v>34.2828525680122</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>212.3075029729254</v>
+        <v>212.3075029729258</v>
       </c>
       <c r="H60" t="n">
-        <v>35.44824173991266</v>
+        <v>35.44824173991285</v>
       </c>
     </row>
     <row r="61">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>194.2502896610837</v>
+        <v>194.2502896610839</v>
       </c>
       <c r="H61" t="n">
-        <v>36.2481332139924</v>
+        <v>36.2481332139925</v>
       </c>
     </row>
     <row r="62">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>112.8658686771841</v>
+        <v>112.8658686771843</v>
       </c>
       <c r="H62" t="n">
-        <v>73.55181406951277</v>
+        <v>73.55181406951286</v>
       </c>
     </row>
     <row r="63">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>79.57596219850113</v>
+        <v>79.57596219850093</v>
       </c>
       <c r="H65" t="n">
-        <v>76.88678439458035</v>
+        <v>76.8867843945803</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>220.5407558914079</v>
+        <v>220.5407558914083</v>
       </c>
       <c r="H66" t="n">
-        <v>78.76134134625059</v>
+        <v>78.76134134625072</v>
       </c>
     </row>
     <row r="67">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>128.8735562745961</v>
+        <v>128.8735562745964</v>
       </c>
       <c r="H67" t="n">
-        <v>83.71989892985144</v>
+        <v>83.7198989298515</v>
       </c>
     </row>
     <row r="68">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>18.94228424240402</v>
+        <v>18.94228424240421</v>
       </c>
       <c r="H68" t="n">
         <v>103.0247103290767</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>-30.54706775147621</v>
+        <v>-30.54706775147644</v>
       </c>
       <c r="H71" t="n">
         <v>140.2890807081772</v>
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>181.0699176055217</v>
+        <v>181.069917605522</v>
       </c>
       <c r="H72" t="n">
-        <v>172.6356598527627</v>
+        <v>172.635659852763</v>
       </c>
     </row>
     <row r="73">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>166.5910952355406</v>
+        <v>166.5910952355408</v>
       </c>
       <c r="H73" t="n">
-        <v>170.5501014172319</v>
+        <v>170.5501014172321</v>
       </c>
     </row>
     <row r="74">
@@ -2658,7 +2658,7 @@
         <v>62.96917454462694</v>
       </c>
       <c r="H74" t="n">
-        <v>68.67882057541131</v>
+        <v>68.67882057541134</v>
       </c>
     </row>
     <row r="75">
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>-47.26897146556396</v>
+        <v>-47.26897146556418</v>
       </c>
       <c r="H75" t="n">
         <v>146.4582278266197</v>
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.331726341969561</v>
+        <v>6.33172634196985</v>
       </c>
       <c r="H76" t="n">
-        <v>143.8740703204897</v>
+        <v>143.8740703204898</v>
       </c>
     </row>
     <row r="77">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>64.99555155862839</v>
+        <v>64.99555155862818</v>
       </c>
       <c r="H78" t="n">
-        <v>40.3174259660967</v>
+        <v>40.31742596609661</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>213.602518056681</v>
+        <v>213.6025180566807</v>
       </c>
       <c r="H79" t="n">
-        <v>34.4662149154769</v>
+        <v>34.46621491547675</v>
       </c>
     </row>
     <row r="80">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>218.1676293818226</v>
+        <v>218.1676293818228</v>
       </c>
       <c r="H81" t="n">
-        <v>30.98757897279728</v>
+        <v>30.98757897279739</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>67.39677973830385</v>
+        <v>67.39677973830365</v>
       </c>
       <c r="H82" t="n">
-        <v>74.40779176975539</v>
+        <v>74.40779176975529</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>169.3786414673145</v>
+        <v>169.3786414673143</v>
       </c>
       <c r="H83" t="n">
-        <v>46.48547020161401</v>
+        <v>46.48547020161391</v>
       </c>
     </row>
     <row r="84">
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>87.44161901937552</v>
+        <v>87.44161901937572</v>
       </c>
       <c r="H84" t="n">
-        <v>35.90690914651454</v>
+        <v>35.90690914651464</v>
       </c>
     </row>
     <row r="85">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>84.20437191510517</v>
+        <v>84.20437191510558</v>
       </c>
       <c r="H85" t="n">
-        <v>39.07085725719529</v>
+        <v>39.07085725719547</v>
       </c>
     </row>
     <row r="86">
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>99.03155604499452</v>
+        <v>99.0315560449943</v>
       </c>
       <c r="H87" t="n">
-        <v>47.36798163568962</v>
+        <v>47.36798163568955</v>
       </c>
     </row>
     <row r="88">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>232.3330077636406</v>
+        <v>232.3330077636404</v>
       </c>
       <c r="H88" t="n">
-        <v>52.09243784735863</v>
+        <v>52.09243784735857</v>
       </c>
     </row>
     <row r="89">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>232.8965725675372</v>
+        <v>232.8965725675374</v>
       </c>
       <c r="H89" t="n">
-        <v>77.21761196022625</v>
+        <v>77.21761196022635</v>
       </c>
     </row>
     <row r="90">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>141.335244689909</v>
+        <v>141.3352446899088</v>
       </c>
       <c r="H90" t="n">
-        <v>57.20415609337216</v>
+        <v>57.20415609337208</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>85.803224762453</v>
+        <v>85.8032247624534</v>
       </c>
       <c r="H91" t="n">
-        <v>44.28348333605133</v>
+        <v>44.28348333605148</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>-16.30462173423103</v>
+        <v>-16.3046217342306</v>
       </c>
       <c r="H92" t="n">
-        <v>85.62806683909419</v>
+        <v>85.62806683909432</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>126.0407444115779</v>
+        <v>126.0407444115781</v>
       </c>
       <c r="H93" t="n">
-        <v>66.4772494594519</v>
+        <v>66.47724945945198</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>-6.73689827970682</v>
+        <v>-6.736898279707108</v>
       </c>
       <c r="H94" t="n">
-        <v>109.3548631044843</v>
+        <v>109.3548631044842</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>9.515232624415962</v>
+        <v>9.515232624416365</v>
       </c>
       <c r="H95" t="n">
-        <v>116.6668665497151</v>
+        <v>116.6668665497152</v>
       </c>
     </row>
     <row r="96">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>36.03743813590036</v>
+        <v>36.03743813590017</v>
       </c>
       <c r="H97" t="n">
-        <v>85.69492408964513</v>
+        <v>85.69492408964506</v>
       </c>
     </row>
     <row r="98">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>127.5771416702851</v>
+        <v>127.5771416702849</v>
       </c>
       <c r="H98" t="n">
-        <v>88.92301007548033</v>
+        <v>88.92301007548029</v>
       </c>
     </row>
     <row r="99">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>-12.00168615394641</v>
+        <v>-12.00168615394597</v>
       </c>
       <c r="H99" t="n">
-        <v>103.3769435237188</v>
+        <v>103.3769435237189</v>
       </c>
     </row>
     <row r="100">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.952224909601953</v>
+        <v>3.952224909602155</v>
       </c>
       <c r="H101" t="n">
-        <v>108.2401018158465</v>
+        <v>108.2401018158466</v>
       </c>
     </row>
   </sheetData>
